--- a/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.1.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IMS\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -249,14 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TASK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,26 +257,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REQSKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REMARK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SALESDEPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTRACTOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAINCONT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nullable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +310,26 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_CONT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,6 +731,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,9 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1434,7 +1434,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1550,23 +1550,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>18</v>
@@ -1621,18 +1621,18 @@
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1645,12 +1645,12 @@
         <v>30</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1659,87 +1659,87 @@
         <v>32</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1815,7 +1815,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>45</v>
@@ -1833,13 +1833,13 @@
         <v>46</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -1853,13 +1853,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1873,13 +1873,13 @@
         <v>48</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -1893,13 +1893,13 @@
         <v>50</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1913,13 +1913,13 @@
         <v>51</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -1933,13 +1933,13 @@
         <v>52</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1953,40 +1953,40 @@
         <v>53</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1997,16 +1997,16 @@
         <v>49</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="11"/>
@@ -2035,5 +2035,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.1.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_PRJ_MGMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당부서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,26 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRJNM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TASK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRACTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nullable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T, F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 정보 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신규 프로젝트 등록 혹은 기존 프로젝트 정보를 변경하고 관리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,23 +281,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONT_CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_CONT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALES_DEPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ_SKILL</t>
+    <t>PRJ_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNCT_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNR_CTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNCT_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIN_BZDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_DIVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRGRS_STUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_SKIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PRJ_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PRJ_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -1369,7 +1373,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1431,10 +1435,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -1533,13 +1537,13 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="20" customWidth="1"/>
     <col min="4" max="4" width="15" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="20" bestFit="1" customWidth="1"/>
@@ -1566,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>19</v>
@@ -1609,7 +1613,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1622,7 +1626,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -1698,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1710,7 +1714,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -1722,7 +1726,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="29" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1791,16 +1795,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1809,16 +1813,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1827,19 +1831,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -1847,19 +1851,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1867,19 +1871,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -1887,19 +1891,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1907,19 +1911,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -1927,19 +1931,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1947,66 +1951,66 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="11"/>
